--- a/output.xlsx
+++ b/output.xlsx
@@ -1,30 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joeclark/git/justwavyj/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F3FBB4-EF3A-2E47-A269-CA5E38566155}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="7480" yWindow="460" windowWidth="21320" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="966">
   <si>
     <t>Mentee</t>
   </si>
   <si>
-    <t>Mentee Location</t>
+    <t>Mentee Email</t>
   </si>
   <si>
     <t>Mentor</t>
   </si>
   <si>
+    <t>Mentor Email</t>
+  </si>
+  <si>
     <t>Brandon Itkin</t>
   </si>
   <si>
@@ -85,207 +94,207 @@
     <t>Chase Nakamura</t>
   </si>
   <si>
+    <t>Julien Dhouti</t>
+  </si>
+  <si>
+    <t>Amit Gattadahalli</t>
+  </si>
+  <si>
+    <t>Jessica Hannon</t>
+  </si>
+  <si>
+    <t>Taylor Vucinich</t>
+  </si>
+  <si>
+    <t>Shinza Raja</t>
+  </si>
+  <si>
+    <t>Omar Safsaf</t>
+  </si>
+  <si>
+    <t>Ricardo Acosta</t>
+  </si>
+  <si>
+    <t>Carlo Perri</t>
+  </si>
+  <si>
+    <t>Meg Richey</t>
+  </si>
+  <si>
+    <t>Racquel Meyer</t>
+  </si>
+  <si>
+    <t>Faatemah Mallick</t>
+  </si>
+  <si>
+    <t>Lucille Hanaway</t>
+  </si>
+  <si>
+    <t>WESTON BRANTNER</t>
+  </si>
+  <si>
+    <t>Zertash Zahid</t>
+  </si>
+  <si>
+    <t>Porter Geer</t>
+  </si>
+  <si>
+    <t>Sophia Beneski</t>
+  </si>
+  <si>
+    <t>Perri Solhjou</t>
+  </si>
+  <si>
+    <t>Joseph Gambetta</t>
+  </si>
+  <si>
+    <t>Ahmad Abushaban</t>
+  </si>
+  <si>
+    <t>Seanna Adam</t>
+  </si>
+  <si>
+    <t>Anthony Spada</t>
+  </si>
+  <si>
+    <t>Melanie Baca</t>
+  </si>
+  <si>
+    <t>Ashley Osiason</t>
+  </si>
+  <si>
+    <t>David Bracamonte</t>
+  </si>
+  <si>
+    <t>Lowry Mays</t>
+  </si>
+  <si>
+    <t>Abigail Moser</t>
+  </si>
+  <si>
+    <t>Hailey Voell</t>
+  </si>
+  <si>
+    <t>Matthew Menendez</t>
+  </si>
+  <si>
+    <t>Evan Hoffman</t>
+  </si>
+  <si>
+    <t>Dana Kim</t>
+  </si>
+  <si>
+    <t>Karan Sharma</t>
+  </si>
+  <si>
+    <t>Roman Cook</t>
+  </si>
+  <si>
+    <t>James James</t>
+  </si>
+  <si>
+    <t>Diego Garcia</t>
+  </si>
+  <si>
+    <t>Kevin Gallagher</t>
+  </si>
+  <si>
+    <t>Sarah Schwartz</t>
+  </si>
+  <si>
+    <t>Ross Hamilton</t>
+  </si>
+  <si>
+    <t>Jonathan Bui</t>
+  </si>
+  <si>
+    <t>Cecile Paquette</t>
+  </si>
+  <si>
+    <t>John Gansallo</t>
+  </si>
+  <si>
+    <t>John Craig</t>
+  </si>
+  <si>
+    <t>Raj Shah</t>
+  </si>
+  <si>
+    <t>Luke Novey</t>
+  </si>
+  <si>
+    <t>Ameer Lahrim</t>
+  </si>
+  <si>
+    <t>Sophie Khan</t>
+  </si>
+  <si>
+    <t>Brendan Lin</t>
+  </si>
+  <si>
+    <t>Teayanna Leytham</t>
+  </si>
+  <si>
+    <t>Jackie Schultz</t>
+  </si>
+  <si>
+    <t>Miriam Grant</t>
+  </si>
+  <si>
+    <t>Alexandra Tsitsiringos</t>
+  </si>
+  <si>
+    <t>Manav Shah</t>
+  </si>
+  <si>
+    <t>Hager Sean</t>
+  </si>
+  <si>
+    <t>Joe Adrienne</t>
+  </si>
+  <si>
+    <t>Wesel Kevin</t>
+  </si>
+  <si>
+    <t>Jae Hoon Lee</t>
+  </si>
+  <si>
+    <t>William Gulian</t>
+  </si>
+  <si>
+    <t>Allison Ambrose</t>
+  </si>
+  <si>
+    <t>Mitchell Watkins</t>
+  </si>
+  <si>
+    <t>Afshin Hamidi</t>
+  </si>
+  <si>
+    <t>Devika Kedia</t>
+  </si>
+  <si>
+    <t>Caleb Morton</t>
+  </si>
+  <si>
+    <t>Shubhankar Dharmadhikari</t>
+  </si>
+  <si>
+    <t>Libby Wiet</t>
+  </si>
+  <si>
+    <t>Nathan Xiao</t>
+  </si>
+  <si>
+    <t>Kawanda Foster</t>
+  </si>
+  <si>
+    <t>Linde Hoffman</t>
+  </si>
+  <si>
     <t>Deepak Goel</t>
   </si>
   <si>
-    <t>Amit Gattadahalli</t>
-  </si>
-  <si>
-    <t>Jessica Hannon</t>
-  </si>
-  <si>
-    <t>Taylor Vucinich</t>
-  </si>
-  <si>
-    <t>Julien Dhouti</t>
-  </si>
-  <si>
-    <t>Omar Safsaf</t>
-  </si>
-  <si>
-    <t>Ricardo Acosta</t>
-  </si>
-  <si>
-    <t>Carlo Perri</t>
-  </si>
-  <si>
-    <t>Meg Richey</t>
-  </si>
-  <si>
-    <t>Racquel Meyer</t>
-  </si>
-  <si>
-    <t>Faatemah Mallick</t>
-  </si>
-  <si>
-    <t>Lucille Hanaway</t>
-  </si>
-  <si>
-    <t>WESTON BRANTNER</t>
-  </si>
-  <si>
-    <t>Zertash Zahid</t>
-  </si>
-  <si>
-    <t>Porter Geer</t>
-  </si>
-  <si>
-    <t>Sophia Beneski</t>
-  </si>
-  <si>
-    <t>Perri Solhjou</t>
-  </si>
-  <si>
-    <t>Shinza Raja</t>
-  </si>
-  <si>
-    <t>Joseph Gambetta</t>
-  </si>
-  <si>
-    <t>Seanna Adam</t>
-  </si>
-  <si>
-    <t>Anthony Spada</t>
-  </si>
-  <si>
-    <t>Melanie Baca</t>
-  </si>
-  <si>
-    <t>Ashley Osiason</t>
-  </si>
-  <si>
-    <t>David Bracamonte</t>
-  </si>
-  <si>
-    <t>Lowry Mays</t>
-  </si>
-  <si>
-    <t>Abigail Moser</t>
-  </si>
-  <si>
-    <t>Hailey Voell</t>
-  </si>
-  <si>
-    <t>Ahmad Abushaban</t>
-  </si>
-  <si>
-    <t>Evan Hoffman</t>
-  </si>
-  <si>
-    <t>Dana Kim</t>
-  </si>
-  <si>
-    <t>Karan Sharma</t>
-  </si>
-  <si>
-    <t>Roman Cook</t>
-  </si>
-  <si>
-    <t>James James</t>
-  </si>
-  <si>
-    <t>Diego Garcia</t>
-  </si>
-  <si>
-    <t>Kevin Gallagher</t>
-  </si>
-  <si>
-    <t>Sarah Schwartz</t>
-  </si>
-  <si>
-    <t>Ross Hamilton</t>
-  </si>
-  <si>
-    <t>Jonathan Bui</t>
-  </si>
-  <si>
-    <t>Cecile Paquette</t>
-  </si>
-  <si>
-    <t>John Gansallo</t>
-  </si>
-  <si>
-    <t>Matthew Menendez</t>
-  </si>
-  <si>
-    <t>John Craig</t>
-  </si>
-  <si>
-    <t>Raj Shah</t>
-  </si>
-  <si>
-    <t>Ameer Lahrim</t>
-  </si>
-  <si>
-    <t>Sophie Khan</t>
-  </si>
-  <si>
-    <t>Brendan Lin</t>
-  </si>
-  <si>
-    <t>Luke Novey</t>
-  </si>
-  <si>
-    <t>Jackie Schultz</t>
-  </si>
-  <si>
-    <t>Teayanna Leytham</t>
-  </si>
-  <si>
-    <t>Miriam Grant</t>
-  </si>
-  <si>
-    <t>Alexandra Tsitsiringos</t>
-  </si>
-  <si>
-    <t>Manav Shah</t>
-  </si>
-  <si>
-    <t>Hager Sean</t>
-  </si>
-  <si>
-    <t>Joe Adrienne</t>
-  </si>
-  <si>
-    <t>Wesel Kevin</t>
-  </si>
-  <si>
-    <t>Jae Hoon Lee</t>
-  </si>
-  <si>
-    <t>William Gulian</t>
-  </si>
-  <si>
-    <t>Allison Ambrose</t>
-  </si>
-  <si>
-    <t>Mitchell Watkins</t>
-  </si>
-  <si>
-    <t>Afshin Hamidi</t>
-  </si>
-  <si>
-    <t>Devika Kedia</t>
-  </si>
-  <si>
-    <t>Caleb Morton</t>
-  </si>
-  <si>
-    <t>Shubhankar Dharmadhikari</t>
-  </si>
-  <si>
-    <t>Libby Wiet</t>
-  </si>
-  <si>
-    <t>Nathan Xiao</t>
-  </si>
-  <si>
-    <t>Kawanda Foster</t>
-  </si>
-  <si>
-    <t>Linde Hoffman</t>
-  </si>
-  <si>
     <t>William Cunningham</t>
   </si>
   <si>
@@ -748,82 +757,727 @@
     <t>Kea Braekman</t>
   </si>
   <si>
-    <t>DC</t>
-  </si>
-  <si>
-    <t>Atlanta, GA</t>
-  </si>
-  <si>
-    <t>Honolulu, HI</t>
-  </si>
-  <si>
-    <t>Tampa, FL</t>
-  </si>
-  <si>
-    <t>San Diego, CA</t>
-  </si>
-  <si>
-    <t>Annapolis Junction, MD</t>
-  </si>
-  <si>
-    <t>New York, NY</t>
-  </si>
-  <si>
-    <t>Norfolk, VA</t>
-  </si>
-  <si>
-    <t>Lexington Park, MD</t>
-  </si>
-  <si>
-    <t>Dayton, OH</t>
-  </si>
-  <si>
-    <t>Aberdeen, MD</t>
-  </si>
-  <si>
-    <t>San Antonio, TX</t>
-  </si>
-  <si>
-    <t>Fayetteville, NC</t>
-  </si>
-  <si>
-    <t>Charleston, SC</t>
-  </si>
-  <si>
-    <t>CMD (Annapolis Junction)</t>
-  </si>
-  <si>
-    <t>Rome, NY</t>
-  </si>
-  <si>
-    <t>Huntsville, AL</t>
-  </si>
-  <si>
-    <t>El Segundo, CA</t>
-  </si>
-  <si>
-    <t>Albuquerque, NM</t>
-  </si>
-  <si>
-    <t>Omaha, NE</t>
-  </si>
-  <si>
-    <t>Annapolis Junction</t>
-  </si>
-  <si>
-    <t>Montgomery, AL</t>
-  </si>
-  <si>
-    <t>Oklahoma City, OK</t>
-  </si>
-  <si>
-    <t>Lexington, MA</t>
-  </si>
-  <si>
-    <t>Colorado Springs, CO</t>
-  </si>
-  <si>
-    <t>Central Maryland</t>
+    <t>itkin.brandon@gmail.com</t>
+  </si>
+  <si>
+    <t>mlyons13@vt.edu</t>
+  </si>
+  <si>
+    <t>darren.m.kubica@gmail.com</t>
+  </si>
+  <si>
+    <t>mclark25@nd.edu</t>
+  </si>
+  <si>
+    <t>lep2jb@virginia.edu</t>
+  </si>
+  <si>
+    <t>hayleyl@email.sc.edu</t>
+  </si>
+  <si>
+    <t>eafrick@umich.edu</t>
+  </si>
+  <si>
+    <t>zgoldst3@jhu.edu</t>
+  </si>
+  <si>
+    <t>rcaroli@vt.edu</t>
+  </si>
+  <si>
+    <t>Patelnx@dukes.jmu.edu</t>
+  </si>
+  <si>
+    <t>abanquer@wesleyan.edu</t>
+  </si>
+  <si>
+    <t>rst54@georgetown.edu</t>
+  </si>
+  <si>
+    <t>msaxon@andrew.cmu.edu</t>
+  </si>
+  <si>
+    <t>hart3al@dukes.jmu.edu</t>
+  </si>
+  <si>
+    <t>ishamangal@berkeley.edu</t>
+  </si>
+  <si>
+    <t>bwolfe7@jhu.edu</t>
+  </si>
+  <si>
+    <t>kylerweisbaum@gmail.com</t>
+  </si>
+  <si>
+    <t>cjterns@gmail.com</t>
+  </si>
+  <si>
+    <t>ssikanda@gmu.edu</t>
+  </si>
+  <si>
+    <t>chasetn@hawaii.edu</t>
+  </si>
+  <si>
+    <t>jdhouti@gmail.com</t>
+  </si>
+  <si>
+    <t>AGattadahalli13@gmail.com</t>
+  </si>
+  <si>
+    <t>jhannon1@nd.edu</t>
+  </si>
+  <si>
+    <t>tvucinic@nd.edu</t>
+  </si>
+  <si>
+    <t>sraja2@gmu.edu</t>
+  </si>
+  <si>
+    <t>osafsaf@masonlive.gmu.edu</t>
+  </si>
+  <si>
+    <t>rjacosa@email.wm.edu</t>
+  </si>
+  <si>
+    <t>cperri@nd.edu</t>
+  </si>
+  <si>
+    <t>richey@stanford.edu</t>
+  </si>
+  <si>
+    <t>Racquel.Meyer@trojans.dsu.edu</t>
+  </si>
+  <si>
+    <t>Mallick_Faatemah@bah.com</t>
+  </si>
+  <si>
+    <t>lhanaway@nd.edu</t>
+  </si>
+  <si>
+    <t>WBRANTN3@JHU.EDU</t>
+  </si>
+  <si>
+    <t>zz9ek@virginia.edu</t>
+  </si>
+  <si>
+    <t>elizabeth.p.geer@vanderbilt.edu</t>
+  </si>
+  <si>
+    <t>sbeneski@iu.edu</t>
+  </si>
+  <si>
+    <t>plsolhjou@gmail.com</t>
+  </si>
+  <si>
+    <t>joe.gambetta@gmail.com</t>
+  </si>
+  <si>
+    <t>Ahmad616@vt.edu</t>
+  </si>
+  <si>
+    <t>seannaadam@gmail.com</t>
+  </si>
+  <si>
+    <t>ajs6709@psu.edu</t>
+  </si>
+  <si>
+    <t>Mbaca2@vt.edu</t>
+  </si>
+  <si>
+    <t>ashleyos@wharton.upenn.edu</t>
+  </si>
+  <si>
+    <t>djbrac11@gmail.com</t>
+  </si>
+  <si>
+    <t>lowry.t.mays@vanderbilt.edu</t>
+  </si>
+  <si>
+    <t>amoser@mit.edu</t>
+  </si>
+  <si>
+    <t>hgv3rj@virginia.edu</t>
+  </si>
+  <si>
+    <t>menenm@rpi.edu</t>
+  </si>
+  <si>
+    <t>evhoffman@clarku.edu</t>
+  </si>
+  <si>
+    <t>djk5767@psu.edu</t>
+  </si>
+  <si>
+    <t>ksharm11@gmu.edu</t>
+  </si>
+  <si>
+    <t>cookra@dukes.jmu.edu</t>
+  </si>
+  <si>
+    <t>jbbamberger@crimson.ua.edu</t>
+  </si>
+  <si>
+    <t>diego.a.garcia@icloud.com</t>
+  </si>
+  <si>
+    <t>kgalla20@nd.edu</t>
+  </si>
+  <si>
+    <t>seschwar@buffalo.edu</t>
+  </si>
+  <si>
+    <t>rosshamilton124@gmail.com</t>
+  </si>
+  <si>
+    <t>Jonathan.md@outlook.com</t>
+  </si>
+  <si>
+    <t>cecilempaquette@gmail.com</t>
+  </si>
+  <si>
+    <t>john.ganzy@gmail.com</t>
+  </si>
+  <si>
+    <t>jcraig2@nd.edu</t>
+  </si>
+  <si>
+    <t>rajvshahjax@gmail.com</t>
+  </si>
+  <si>
+    <t>lnovey314@gmail.com</t>
+  </si>
+  <si>
+    <t>ameerlahrim@gmail.com</t>
+  </si>
+  <si>
+    <t>sophfk1@vt.edu</t>
+  </si>
+  <si>
+    <t>blin36@binghamton.edu</t>
+  </si>
+  <si>
+    <t>tleytham@nd.edu</t>
+  </si>
+  <si>
+    <t>jackieschultz23@gmail.com</t>
+  </si>
+  <si>
+    <t>mvgrant20@gmail.com</t>
+  </si>
+  <si>
+    <t>alexandra.tsitsiringos@tufts.edu</t>
+  </si>
+  <si>
+    <t>mshah18@gmu.edu</t>
+  </si>
+  <si>
+    <t>shager1@nd.edu</t>
+  </si>
+  <si>
+    <t>aaj3@williams.edu</t>
+  </si>
+  <si>
+    <t>kwesel@mit.edu</t>
+  </si>
+  <si>
+    <t>jhoonlee1@gmail.com</t>
+  </si>
+  <si>
+    <t>wgulian@gatech.edu</t>
+  </si>
+  <si>
+    <t>ambrose_allison@bah.com</t>
+  </si>
+  <si>
+    <t>mwwatkin@iu.edu</t>
+  </si>
+  <si>
+    <t>afshin.hamidi9@gmail.com</t>
+  </si>
+  <si>
+    <t>devika.kedia@yale.edu</t>
+  </si>
+  <si>
+    <t>mortoncf17@gcc.edu</t>
+  </si>
+  <si>
+    <t>dharm027@umn.edu</t>
+  </si>
+  <si>
+    <t>wiet.9@osu.edu</t>
+  </si>
+  <si>
+    <t>nathan.xiao@vanderbilt.edu</t>
+  </si>
+  <si>
+    <t>k.amyfoster@yahoo.com</t>
+  </si>
+  <si>
+    <t>lhoffma2@nd.edu</t>
+  </si>
+  <si>
+    <t>deepakgoel@virginia.edu</t>
+  </si>
+  <si>
+    <t>wcunning@nd.edu</t>
+  </si>
+  <si>
+    <t>sophia.ann.hawkins@gmail.com</t>
+  </si>
+  <si>
+    <t>Kenny30@ymail.com</t>
+  </si>
+  <si>
+    <t>daniel_l1@denison.edu</t>
+  </si>
+  <si>
+    <t>urishakreem@gmail.com</t>
+  </si>
+  <si>
+    <t>kelseymanderson4@gmail.com</t>
+  </si>
+  <si>
+    <t>eebucchieri@email.wm.edu</t>
+  </si>
+  <si>
+    <t>dagne.noah@gmail.com</t>
+  </si>
+  <si>
+    <t>ericbrockwellpsu@gmail.com</t>
+  </si>
+  <si>
+    <t>trg3ua@virginia.edu</t>
+  </si>
+  <si>
+    <t>porte3la@dukes.jmu.edu</t>
+  </si>
+  <si>
+    <t>ycai20@jhu.edu</t>
+  </si>
+  <si>
+    <t>vivienyuwenchen@gmail.com</t>
+  </si>
+  <si>
+    <t>ingthacha@gmail.com</t>
+  </si>
+  <si>
+    <t>david94539@gmail.com</t>
+  </si>
+  <si>
+    <t>antara167@gmail.com</t>
+  </si>
+  <si>
+    <t>connor.f.capitolo@vanderbilt.edu</t>
+  </si>
+  <si>
+    <t>joel.santoro77@gmail.com</t>
+  </si>
+  <si>
+    <t>cqmcmahon9@gmail.com</t>
+  </si>
+  <si>
+    <t>canzalon@nd.edu</t>
+  </si>
+  <si>
+    <t>bairdbr@dukes.jmu.edu</t>
+  </si>
+  <si>
+    <t>jwm8@williams.edu</t>
+  </si>
+  <si>
+    <t>britt24@vt.edu</t>
+  </si>
+  <si>
+    <t>bolducsc@bc.edu</t>
+  </si>
+  <si>
+    <t>hl5ec@virginia.edu</t>
+  </si>
+  <si>
+    <t>Jaque97@vt.edu</t>
+  </si>
+  <si>
+    <t>ashkarahmed533@gmail.com</t>
+  </si>
+  <si>
+    <t>jk4gz@virginia.edu</t>
+  </si>
+  <si>
+    <t>masad6@gmu.edu</t>
+  </si>
+  <si>
+    <t>lboutros@nd.edu</t>
+  </si>
+  <si>
+    <t>senglish@wesleyan.edu</t>
+  </si>
+  <si>
+    <t>coconne5@nd.edu</t>
+  </si>
+  <si>
+    <t>pk375@cornell.edu</t>
+  </si>
+  <si>
+    <t>jlies1@nd.edu</t>
+  </si>
+  <si>
+    <t>Klewis29@gmu.edu</t>
+  </si>
+  <si>
+    <t>atatem@u.rochester.edu</t>
+  </si>
+  <si>
+    <t>cx3@princeton.edu</t>
+  </si>
+  <si>
+    <t>pboinpal@gmu.edu</t>
+  </si>
+  <si>
+    <t>jade.e.davis@duke.edu</t>
+  </si>
+  <si>
+    <t>samantha.v.axline@vanderbilt.edu</t>
+  </si>
+  <si>
+    <t>iwong98@vt.edu</t>
+  </si>
+  <si>
+    <t>iw68@cornell.edu</t>
+  </si>
+  <si>
+    <t>ek563@cornell.edu</t>
+  </si>
+  <si>
+    <t>achristensen@sandiego.edu</t>
+  </si>
+  <si>
+    <t>arc319@lehigh.edu</t>
+  </si>
+  <si>
+    <t>Levine.1742@osu.edu</t>
+  </si>
+  <si>
+    <t>tayjomo@live.unc.edu</t>
+  </si>
+  <si>
+    <t>abajaj@vt.edu</t>
+  </si>
+  <si>
+    <t>Natalie.jordan22@gmail.com</t>
+  </si>
+  <si>
+    <t>rns5224@psu.edu</t>
+  </si>
+  <si>
+    <t>gearle@gmu.edu</t>
+  </si>
+  <si>
+    <t>imr5102@psu.edu</t>
+  </si>
+  <si>
+    <t>chrismacdonald@wustl.edu</t>
+  </si>
+  <si>
+    <t>cococai1999@gmail.com</t>
+  </si>
+  <si>
+    <t>johnr.words@gmail.com</t>
+  </si>
+  <si>
+    <t>harsh301@vt.edu</t>
+  </si>
+  <si>
+    <t>rkushe@gmu.edu</t>
+  </si>
+  <si>
+    <t>kvberry@email.wm.edu</t>
+  </si>
+  <si>
+    <t>dplantam@nd.edu</t>
+  </si>
+  <si>
+    <t>fatima98@vt.edu</t>
+  </si>
+  <si>
+    <t>alyssa.curty@gmail.com</t>
+  </si>
+  <si>
+    <t>nihalkala@ufl.edu</t>
+  </si>
+  <si>
+    <t>Dejawatkins@gmail.com</t>
+  </si>
+  <si>
+    <t>david4tran@gmail.com</t>
+  </si>
+  <si>
+    <t>richas55@vt.edu</t>
+  </si>
+  <si>
+    <t>keithafernandezjr@gmail.com</t>
+  </si>
+  <si>
+    <t>agc78@cornell.edu</t>
+  </si>
+  <si>
+    <t>Jide.akanni36@gmail.com</t>
+  </si>
+  <si>
+    <t>sarah.summersgill@asu.edu</t>
+  </si>
+  <si>
+    <t>megans11@vt.edu</t>
+  </si>
+  <si>
+    <t>owenfleming3@gmail.com</t>
+  </si>
+  <si>
+    <t>eric.liu@yale.edu</t>
+  </si>
+  <si>
+    <t>lpierle@vt.edu</t>
+  </si>
+  <si>
+    <t>mb4am@virginia.edu</t>
+  </si>
+  <si>
+    <t>eep6aa@virginia.edu</t>
+  </si>
+  <si>
+    <t>distaykov@email.wm.edu</t>
+  </si>
+  <si>
+    <t>hchar23@vt.edu</t>
+  </si>
+  <si>
+    <t>bokuna@hawaii.edu</t>
+  </si>
+  <si>
+    <t>jillianrosegartner@gmail.com</t>
+  </si>
+  <si>
+    <t>nima.u.chatlani@gmail.com</t>
+  </si>
+  <si>
+    <t>dotnet01@protonmail.com</t>
+  </si>
+  <si>
+    <t>taylorrjens@gmail.com</t>
+  </si>
+  <si>
+    <t>Okroop@ucsd.edu</t>
+  </si>
+  <si>
+    <t>aaron.viengkhone@gmail.com</t>
+  </si>
+  <si>
+    <t>r_neville925@yahoo.com</t>
+  </si>
+  <si>
+    <t>mayemane@smcm.edu</t>
+  </si>
+  <si>
+    <t>dkwock@hawaii.edu</t>
+  </si>
+  <si>
+    <t>bradleystephen096@gmail.com</t>
+  </si>
+  <si>
+    <t>belicia.tan@columbia.edu</t>
+  </si>
+  <si>
+    <t>kolsjon14@gmail.com</t>
+  </si>
+  <si>
+    <t>pd2519@columbia.edu</t>
+  </si>
+  <si>
+    <t>bep2120@columbia.edu</t>
+  </si>
+  <si>
+    <t>jl4814@columbia.edu</t>
+  </si>
+  <si>
+    <t>dovelmatthew@gmail.com</t>
+  </si>
+  <si>
+    <t>jordan.oberg@trojans.dsu.edu</t>
+  </si>
+  <si>
+    <t>Jaredk978@gwu.edu</t>
+  </si>
+  <si>
+    <t>nibrahi1@umbc.edu</t>
+  </si>
+  <si>
+    <t>isaiahw.gregory@gmail.com</t>
+  </si>
+  <si>
+    <t>aakang@umich.edu</t>
+  </si>
+  <si>
+    <t>robertocarlossaraviadiaz@gmail.com</t>
+  </si>
+  <si>
+    <t>ortiz.javier.f@gmail.com</t>
+  </si>
+  <si>
+    <t>juhichoudhury@gmail.com</t>
+  </si>
+  <si>
+    <t>thomasj0295@student.faytechcc.edu</t>
+  </si>
+  <si>
+    <t>zack.pulaski@gmail.com</t>
+  </si>
+  <si>
+    <t>alice6liu@gmail.com</t>
+  </si>
+  <si>
+    <t>ksundaram1000@gmail.com</t>
+  </si>
+  <si>
+    <t>brianf888@gmail.com</t>
+  </si>
+  <si>
+    <t>Dm3895@nyu.edu</t>
+  </si>
+  <si>
+    <t>Mas0096@auburn.edu</t>
+  </si>
+  <si>
+    <t>anagarajan25@g.ucla.edu</t>
+  </si>
+  <si>
+    <t>bjm7w2@mst.edu</t>
+  </si>
+  <si>
+    <t>Jackiezeng97@gmail.com</t>
+  </si>
+  <si>
+    <t>vquin98@outlook.com</t>
+  </si>
+  <si>
+    <t>Tyungmann123@gmail.com</t>
+  </si>
+  <si>
+    <t>ryanpmcfad@gmail.com</t>
+  </si>
+  <si>
+    <t>schenkh0504@my.uwstout.edu</t>
+  </si>
+  <si>
+    <t>tisaiahthurman@gmail.com</t>
+  </si>
+  <si>
+    <t>matt@matthewwang.me</t>
+  </si>
+  <si>
+    <t>Bryanpan342@gmail.com</t>
+  </si>
+  <si>
+    <t>Jburns5@umbc.edu</t>
+  </si>
+  <si>
+    <t>Rmilhiser3@gatech.edu</t>
+  </si>
+  <si>
+    <t>thackere@wittenberg.edu</t>
+  </si>
+  <si>
+    <t>christos@achilleoudis.com</t>
+  </si>
+  <si>
+    <t>Cmatt11@okstate.edu</t>
+  </si>
+  <si>
+    <t>alexanderhoffman777@gmail.com</t>
+  </si>
+  <si>
+    <t>sconwa2@lsu.edu</t>
+  </si>
+  <si>
+    <t>stanley.wong@yale.edu</t>
+  </si>
+  <si>
+    <t>dc23910@gmail.com</t>
+  </si>
+  <si>
+    <t>jjiang@gatech.edu</t>
+  </si>
+  <si>
+    <t>allisongreenberg1@gmail.com</t>
+  </si>
+  <si>
+    <t>chelsea.statton@gmail.com</t>
+  </si>
+  <si>
+    <t>bcaro@oswego.edu</t>
+  </si>
+  <si>
+    <t>jddimeo1@gmail.com</t>
+  </si>
+  <si>
+    <t>robertjrueh@gmail.com</t>
+  </si>
+  <si>
+    <t>syeung6@gatech.edu</t>
+  </si>
+  <si>
+    <t>achien@live.unc.edu</t>
+  </si>
+  <si>
+    <t>stevenlu907@gmail.com</t>
+  </si>
+  <si>
+    <t>atdaughe@go.olemiss.edu</t>
+  </si>
+  <si>
+    <t>timdowling12@gmail.com</t>
+  </si>
+  <si>
+    <t>naylahperodin@gmail.com</t>
+  </si>
+  <si>
+    <t>Kesler.34@osu.edu</t>
+  </si>
+  <si>
+    <t>jakemellichamp@gmail.com</t>
+  </si>
+  <si>
+    <t>nsahay@terpmail.umd.edu</t>
+  </si>
+  <si>
+    <t>andrew.suda13@gmail.com</t>
+  </si>
+  <si>
+    <t>danoro96@gmail.com</t>
+  </si>
+  <si>
+    <t>cdun2@umbc.edu</t>
+  </si>
+  <si>
+    <t>shanmugam.chidambaram@vanderbilt.edu</t>
+  </si>
+  <si>
+    <t>kyleigh.koster.17@cnu.edu</t>
+  </si>
+  <si>
+    <t>nicholas.white752@gmail.com</t>
+  </si>
+  <si>
+    <t>4alisha98@gmail.com</t>
+  </si>
+  <si>
+    <t>vasiliki.c.argeroplos@vanderbilt.edu</t>
+  </si>
+  <si>
+    <t>jbbaham1@gmail.com</t>
+  </si>
+  <si>
+    <t>isaac.alan.cox@gmail.com</t>
+  </si>
+  <si>
+    <t>Kea.braekman@gmail.com</t>
   </si>
   <si>
     <t>Tiffani Davis</t>
@@ -1030,9 +1684,6 @@
     <t>Bryan Buzi</t>
   </si>
   <si>
-    <t>Giancarlo Carozza</t>
-  </si>
-  <si>
     <t>Melly Hu</t>
   </si>
   <si>
@@ -1321,108 +1972,108 @@
     <t>Justin Pizzimenti</t>
   </si>
   <si>
+    <t>Nona Kiknadze</t>
+  </si>
+  <si>
+    <t>Travis Tredway</t>
+  </si>
+  <si>
+    <t>Paige Benton</t>
+  </si>
+  <si>
+    <t>Nicholas Knitter</t>
+  </si>
+  <si>
+    <t>Mike Knitter</t>
+  </si>
+  <si>
+    <t>Alec Zapolski</t>
+  </si>
+  <si>
+    <t>James Edminister</t>
+  </si>
+  <si>
+    <t>Mike Fincher</t>
+  </si>
+  <si>
+    <t>Reema Domadia</t>
+  </si>
+  <si>
+    <t>Laurie Miller</t>
+  </si>
+  <si>
+    <t>Dawn Warren</t>
+  </si>
+  <si>
+    <t>Kim Kirkpatrick Rigg</t>
+  </si>
+  <si>
+    <t>Susan Webber</t>
+  </si>
+  <si>
+    <t>Michelle Bornstein</t>
+  </si>
+  <si>
+    <t>Downey Jamie</t>
+  </si>
+  <si>
+    <t>Bridget Scanlon</t>
+  </si>
+  <si>
+    <t>Thomas Gempp</t>
+  </si>
+  <si>
+    <t>Colin Crowley</t>
+  </si>
+  <si>
+    <t>Margaret Collins</t>
+  </si>
+  <si>
+    <t>Susan Li</t>
+  </si>
+  <si>
+    <t>Mathur Mohit</t>
+  </si>
+  <si>
+    <t>Ryan Hampton</t>
+  </si>
+  <si>
+    <t>Rachel Collins</t>
+  </si>
+  <si>
+    <t>Blandford Julie</t>
+  </si>
+  <si>
+    <t>Abegail Gill</t>
+  </si>
+  <si>
+    <t>Paayal Sood</t>
+  </si>
+  <si>
+    <t>Shobitha Nandi</t>
+  </si>
+  <si>
+    <t>Anna Wujciak</t>
+  </si>
+  <si>
+    <t>Ryan Harmonick</t>
+  </si>
+  <si>
+    <t>Patel Bianca</t>
+  </si>
+  <si>
+    <t>Barbara Brophy</t>
+  </si>
+  <si>
+    <t>Apeksha Iyer</t>
+  </si>
+  <si>
+    <t>Jenna Grossi</t>
+  </si>
+  <si>
     <t>Trouw Isabella</t>
   </si>
   <si>
-    <t>Nona Kiknadze</t>
-  </si>
-  <si>
-    <t>Travis Tredway</t>
-  </si>
-  <si>
-    <t>Paige Benton</t>
-  </si>
-  <si>
-    <t>Nicholas Knitter</t>
-  </si>
-  <si>
-    <t>Mike Knitter</t>
-  </si>
-  <si>
-    <t>Alec Zapolski</t>
-  </si>
-  <si>
-    <t>James Edminister</t>
-  </si>
-  <si>
-    <t>Mike Fincher</t>
-  </si>
-  <si>
-    <t>Reema Domadia</t>
-  </si>
-  <si>
-    <t>Laurie Miller</t>
-  </si>
-  <si>
-    <t>Dawn Warren</t>
-  </si>
-  <si>
-    <t>Kim Kirkpatrick Rigg</t>
-  </si>
-  <si>
-    <t>Susan Webber</t>
-  </si>
-  <si>
-    <t>Michelle Bornstein</t>
-  </si>
-  <si>
-    <t>Downey Jamie</t>
-  </si>
-  <si>
-    <t>Bridget Scanlon</t>
-  </si>
-  <si>
-    <t>Thomas Gempp</t>
-  </si>
-  <si>
-    <t>Colin Crowley</t>
-  </si>
-  <si>
-    <t>Margaret Collins</t>
-  </si>
-  <si>
-    <t>Susan Li</t>
-  </si>
-  <si>
-    <t>Mathur Mohit</t>
-  </si>
-  <si>
-    <t>Ryan Hampton</t>
-  </si>
-  <si>
-    <t>Rachel Collins</t>
-  </si>
-  <si>
-    <t>Blandford Julie</t>
-  </si>
-  <si>
-    <t>Abegail Gill</t>
-  </si>
-  <si>
-    <t>Paayal Sood</t>
-  </si>
-  <si>
-    <t>Shobitha Nandi</t>
-  </si>
-  <si>
-    <t>Anna Wujciak</t>
-  </si>
-  <si>
-    <t>Ryan Harmonick</t>
-  </si>
-  <si>
-    <t>Patel Bianca</t>
-  </si>
-  <si>
-    <t>Barbara Brophy</t>
-  </si>
-  <si>
-    <t>Apeksha Iyer</t>
-  </si>
-  <si>
-    <t>Jenna Grossi</t>
-  </si>
-  <si>
     <t>Tracy Zapata</t>
   </si>
   <si>
@@ -1552,14 +2203,728 @@
     <t>Janelle Smart</t>
   </si>
   <si>
-    <t>Justin Goldman</t>
+    <t>Tiffaniadavis02@gmail.com</t>
+  </si>
+  <si>
+    <t>snyder_daniel2@bah.com</t>
+  </si>
+  <si>
+    <t>jaffe_hannah@bah.com</t>
+  </si>
+  <si>
+    <t>blevins_dan@bah.com</t>
+  </si>
+  <si>
+    <t>borchert_john@bah.com</t>
+  </si>
+  <si>
+    <t>upadhyaya_roshita@bah.com</t>
+  </si>
+  <si>
+    <t>harrs_andrew@bah.com</t>
+  </si>
+  <si>
+    <t>rubin_nelly@bah.com</t>
+  </si>
+  <si>
+    <t>harrington_kathleen@bah.com</t>
+  </si>
+  <si>
+    <t>benyamadera@gmail.com</t>
+  </si>
+  <si>
+    <t>Panagari_yamini@bah.com</t>
+  </si>
+  <si>
+    <t>Kane_Elizabeth@bah.com</t>
+  </si>
+  <si>
+    <t>ochs_madison@bah.com</t>
+  </si>
+  <si>
+    <t>campbell_austin@bah.com</t>
+  </si>
+  <si>
+    <t>yarosh_hillary@bah.com</t>
+  </si>
+  <si>
+    <t>Gill_gurpreet2@bah.com</t>
+  </si>
+  <si>
+    <t>smith_ellie@bah.com</t>
+  </si>
+  <si>
+    <t>fuscoe_claire@bah.com</t>
+  </si>
+  <si>
+    <t>laiti_jessica@bah.com</t>
+  </si>
+  <si>
+    <t>dyvik_tore@bah.com</t>
+  </si>
+  <si>
+    <t>dawahare_james@bah.com</t>
+  </si>
+  <si>
+    <t>Kretzu_Leona@bah.com</t>
+  </si>
+  <si>
+    <t>glass_emma@bah.com</t>
+  </si>
+  <si>
+    <t>Furuhata_Yayoi@bah.com</t>
+  </si>
+  <si>
+    <t>daniel_roshan@bah.com</t>
+  </si>
+  <si>
+    <t>harrison_christina@bah.com</t>
+  </si>
+  <si>
+    <t>johnson_mary2@bah.com</t>
+  </si>
+  <si>
+    <t>cadwell_jessica@bah.com</t>
+  </si>
+  <si>
+    <t>dine_jonathan@bah.com</t>
+  </si>
+  <si>
+    <t>peter_ashley@bah.com</t>
+  </si>
+  <si>
+    <t>tenbrookchase@gmail.com</t>
+  </si>
+  <si>
+    <t>feliu_sarah@bah.com</t>
+  </si>
+  <si>
+    <t>Cantrell_Alexandra@BAH.com</t>
+  </si>
+  <si>
+    <t>borden_zoe@bah.com</t>
+  </si>
+  <si>
+    <t>riordan_melissa@bah.com</t>
+  </si>
+  <si>
+    <t>wieger_anna@bah.com</t>
+  </si>
+  <si>
+    <t>bray_marissa@bah.com</t>
+  </si>
+  <si>
+    <t>Palmer_duncan@bah.com</t>
+  </si>
+  <si>
+    <t>fielder_ryan@bah.com</t>
+  </si>
+  <si>
+    <t>smith_cassandra@bah.com</t>
+  </si>
+  <si>
+    <t>schneider_alison@bah.com</t>
+  </si>
+  <si>
+    <t>cory_jacquelyn@bah.com</t>
+  </si>
+  <si>
+    <t>brown_frank2@bah.com</t>
+  </si>
+  <si>
+    <t>cronin_jeffrey@bah.com</t>
+  </si>
+  <si>
+    <t>jones_colin@bah.com</t>
+  </si>
+  <si>
+    <t>Kang_robert@bah.com</t>
+  </si>
+  <si>
+    <t>segal_jacob@bah.com</t>
+  </si>
+  <si>
+    <t>mathialagan_raj@bah.com</t>
+  </si>
+  <si>
+    <t>hamidi_ryan@bah.com</t>
+  </si>
+  <si>
+    <t>logue_kristen@bah.com</t>
+  </si>
+  <si>
+    <t>maurer_bailey@bah.com</t>
+  </si>
+  <si>
+    <t>gorman_jarrett@bah.com</t>
+  </si>
+  <si>
+    <t>le_namchi@bah.com</t>
+  </si>
+  <si>
+    <t>Cutler_Sarah@bah.com</t>
+  </si>
+  <si>
+    <t>junco_madeleine@bah.com</t>
+  </si>
+  <si>
+    <t>lew_christopher@bah.com</t>
+  </si>
+  <si>
+    <t>min_sun@bah.com</t>
+  </si>
+  <si>
+    <t>bishop_shanna@bah.com</t>
+  </si>
+  <si>
+    <t>nappi_kyle@bah.com</t>
+  </si>
+  <si>
+    <t>abed_aladdin@bah.com</t>
+  </si>
+  <si>
+    <t>moye_myranda@bah.com</t>
+  </si>
+  <si>
+    <t>Olson_Sean@bah.com</t>
+  </si>
+  <si>
+    <t>Romulus_shannon@bah.com</t>
+  </si>
+  <si>
+    <t>armstrong_Thomas@bah.com</t>
+  </si>
+  <si>
+    <t>Alexander_Ziad2@bah.com</t>
+  </si>
+  <si>
+    <t>leehan_elisa@bah.com</t>
+  </si>
+  <si>
+    <t>boniferajr_vincent@bah.com</t>
+  </si>
+  <si>
+    <t>buzi_bryan@bah.com</t>
+  </si>
+  <si>
+    <t>hu_melly@bah.com</t>
+  </si>
+  <si>
+    <t>Halberstadt_Molly@bah.com</t>
+  </si>
+  <si>
+    <t>Roberts_eduardo@bah.com</t>
+  </si>
+  <si>
+    <t>Richard_Michael@bah.com</t>
+  </si>
+  <si>
+    <t>sako_borjana@bah.com</t>
+  </si>
+  <si>
+    <t>Akwuba_Kennedy@bah.com</t>
+  </si>
+  <si>
+    <t>guzman_stephanie@bah.com</t>
+  </si>
+  <si>
+    <t>wang_kristen@bah.com</t>
+  </si>
+  <si>
+    <t>Lagos_Maggie@bah.com</t>
+  </si>
+  <si>
+    <t>vanslyke_ryan@bah.com</t>
+  </si>
+  <si>
+    <t>Becherer_Sheila@bah.com</t>
+  </si>
+  <si>
+    <t>lee_christina@bah.com</t>
+  </si>
+  <si>
+    <t>merida_alexander@bah.com</t>
+  </si>
+  <si>
+    <t>reilly_brandon@bah.com</t>
+  </si>
+  <si>
+    <t>yu_vincent@bah.com</t>
+  </si>
+  <si>
+    <t>situ_christine@bah.com</t>
+  </si>
+  <si>
+    <t>somani_heena@bah.com</t>
+  </si>
+  <si>
+    <t>crowder_rachel@bah.com</t>
+  </si>
+  <si>
+    <t>best_jason@bah.com</t>
+  </si>
+  <si>
+    <t>ganey_delena@bah.com</t>
+  </si>
+  <si>
+    <t>kumar_surbhi@bah.com</t>
+  </si>
+  <si>
+    <t>naveed_sheralam@bah.com</t>
+  </si>
+  <si>
+    <t>yeung_michelle@bah.com</t>
+  </si>
+  <si>
+    <t>williams_briana@bah.com</t>
+  </si>
+  <si>
+    <t>ohno_benjamin@bah.com</t>
+  </si>
+  <si>
+    <t>Martinez_Hector@bah.com</t>
+  </si>
+  <si>
+    <t>Kalita_Ashley@bah.com</t>
+  </si>
+  <si>
+    <t>Spurlock_Ashley@bah.com</t>
+  </si>
+  <si>
+    <t>velasquez_victoria@bah.com</t>
+  </si>
+  <si>
+    <t>hinson_eli@bah.com</t>
+  </si>
+  <si>
+    <t>zigman_jenna@bah.com</t>
+  </si>
+  <si>
+    <t>lafferty_john@bah.com</t>
+  </si>
+  <si>
+    <t>irwin_regina@bah.com</t>
+  </si>
+  <si>
+    <t>wong_stephen@bah.com</t>
+  </si>
+  <si>
+    <t>smith_jillian@bah.com</t>
+  </si>
+  <si>
+    <t>Mccoy_keeley@bah.com</t>
+  </si>
+  <si>
+    <t>maroukis_james@bah.com</t>
+  </si>
+  <si>
+    <t>prouse_mary@bah.com</t>
+  </si>
+  <si>
+    <t>stephanos_henok@bah.com</t>
+  </si>
+  <si>
+    <t>jerez_jonathan@bah.com</t>
+  </si>
+  <si>
+    <t>leach_suzanne@bah.com</t>
+  </si>
+  <si>
+    <t>castelli_christian@bah.com</t>
+  </si>
+  <si>
+    <t>davila_daniel@bah.com</t>
+  </si>
+  <si>
+    <t>kathleen.donnelly@bah.com</t>
+  </si>
+  <si>
+    <t>wallace_megan2@bah.com</t>
+  </si>
+  <si>
+    <t>berry_rachel@bah.com</t>
+  </si>
+  <si>
+    <t>Nicandri_Melissa@bah.com</t>
+  </si>
+  <si>
+    <t>Farley_sasha@bah.com</t>
+  </si>
+  <si>
+    <t>Coulter_Bryce@bah.com</t>
+  </si>
+  <si>
+    <t>zeraye_helen@bah.com</t>
+  </si>
+  <si>
+    <t>buffum_mitchell@bah.com</t>
+  </si>
+  <si>
+    <t>601773@bah.com</t>
+  </si>
+  <si>
+    <t>591655@bah.com</t>
+  </si>
+  <si>
+    <t>pham_quan@bah.com</t>
+  </si>
+  <si>
+    <t>balmaseda_pablo@bah.com</t>
+  </si>
+  <si>
+    <t>piefer_lauren@bah.com</t>
+  </si>
+  <si>
+    <t>Basara_Aleksa@bah.com</t>
+  </si>
+  <si>
+    <t>celentano_ali@bah.com</t>
+  </si>
+  <si>
+    <t>wagner_jonathan@bah.com</t>
+  </si>
+  <si>
+    <t>Johansen_Justin@bah.com</t>
+  </si>
+  <si>
+    <t>dandapani_nikila@bah.com</t>
+  </si>
+  <si>
+    <t>ford_matthew@bah.com</t>
+  </si>
+  <si>
+    <t>richel_hailey@bah.com</t>
+  </si>
+  <si>
+    <t>ceaser_marissa@bah.com</t>
+  </si>
+  <si>
+    <t>Sukich_jaclyn@bah.com</t>
+  </si>
+  <si>
+    <t>rachkliger@gmail.com</t>
+  </si>
+  <si>
+    <t>Milbergs_Stephanie@bah.com</t>
+  </si>
+  <si>
+    <t>dulaney_dennis@bah.com</t>
+  </si>
+  <si>
+    <t>zients_allyson@bah.com</t>
+  </si>
+  <si>
+    <t>Lohman_Brianna@bah.com</t>
+  </si>
+  <si>
+    <t>geary_cailean@bah.com</t>
+  </si>
+  <si>
+    <t>low_julia@bah.com</t>
+  </si>
+  <si>
+    <t>wheeler_christian@bah.com</t>
+  </si>
+  <si>
+    <t>feinman_emma@bah.com</t>
+  </si>
+  <si>
+    <t>bonner_alexander@bah.com</t>
+  </si>
+  <si>
+    <t>Khanna_Sohil@bah.com</t>
+  </si>
+  <si>
+    <t>gragan_julia@bah.com</t>
+  </si>
+  <si>
+    <t>jafari_nellie@bah.com</t>
+  </si>
+  <si>
+    <t>zieve_sarah@bah.com</t>
+  </si>
+  <si>
+    <t>mathur_karan@bah.com</t>
+  </si>
+  <si>
+    <t>katz_max@bah.com</t>
+  </si>
+  <si>
+    <t>graine_allison@bah.com</t>
+  </si>
+  <si>
+    <t>hurt_ryland@bah.com</t>
+  </si>
+  <si>
+    <t>kapoor_upma@bah.com</t>
+  </si>
+  <si>
+    <t>felder_sophie@bah.com</t>
+  </si>
+  <si>
+    <t>Worthy_Averston@bah.com</t>
+  </si>
+  <si>
+    <t>luotto_katherine@bah.com</t>
+  </si>
+  <si>
+    <t>zitelman_derik@bah.com</t>
+  </si>
+  <si>
+    <t>mendoza_amira@bah.com</t>
+  </si>
+  <si>
+    <t>etienne_michelle@bah.com</t>
+  </si>
+  <si>
+    <t>Foster_Grace@bah.com</t>
+  </si>
+  <si>
+    <t>brown_ross@bah.com</t>
+  </si>
+  <si>
+    <t>Cunniffe_carolyn@bah.com</t>
+  </si>
+  <si>
+    <t>Hemmati_Juliet@bah.com</t>
+  </si>
+  <si>
+    <t>pizzimenti_justin@bah.com</t>
+  </si>
+  <si>
+    <t>kiknadze_nona@bah.com</t>
+  </si>
+  <si>
+    <t>Tredway_travis@bah.com</t>
+  </si>
+  <si>
+    <t>benton_paige@bah.com</t>
+  </si>
+  <si>
+    <t>knitter_nicholas@bah.com</t>
+  </si>
+  <si>
+    <t>chegin_michael@bah.com</t>
+  </si>
+  <si>
+    <t>zapolski_alec@bah.com</t>
+  </si>
+  <si>
+    <t>edminister_james@bah.com</t>
+  </si>
+  <si>
+    <t>fincher_mike@bah.com</t>
+  </si>
+  <si>
+    <t>Domadia_reema@bah.com</t>
+  </si>
+  <si>
+    <t>miller_laurie@bah.com</t>
+  </si>
+  <si>
+    <t>warren_dawn@bah.com</t>
+  </si>
+  <si>
+    <t>kirkpatrickrigg_kimberly@bah.com</t>
+  </si>
+  <si>
+    <t>Webber_Susan@bah.com</t>
+  </si>
+  <si>
+    <t>bornstein_michelle@bah.com</t>
+  </si>
+  <si>
+    <t>downey_james@bah.com</t>
+  </si>
+  <si>
+    <t>scanlon_bridget@bah.com</t>
+  </si>
+  <si>
+    <t>gempp_thomas@bah.com</t>
+  </si>
+  <si>
+    <t>crowley_colin@bah.com</t>
+  </si>
+  <si>
+    <t>collins_margaret@bah.com</t>
+  </si>
+  <si>
+    <t>Li_Susan@bah.com</t>
+  </si>
+  <si>
+    <t>Mathur_Mohit@bah.com</t>
+  </si>
+  <si>
+    <t>hampton_ryan@bah.com</t>
+  </si>
+  <si>
+    <t>Collins_Rachel@bah.com</t>
+  </si>
+  <si>
+    <t>blandford_julie@bah.com</t>
+  </si>
+  <si>
+    <t>gill_abegail@bah.com</t>
+  </si>
+  <si>
+    <t>sood_paayal@bah.com</t>
+  </si>
+  <si>
+    <t>Nandi_shobitha@bah.com</t>
+  </si>
+  <si>
+    <t>wujciak_anna@bah.com</t>
+  </si>
+  <si>
+    <t>Harmonick_Ryan@bah.com</t>
+  </si>
+  <si>
+    <t>patel_bianca@bah.com</t>
+  </si>
+  <si>
+    <t>brophy_barbara@bah.com</t>
+  </si>
+  <si>
+    <t>iyer_apeksha@bah.com</t>
+  </si>
+  <si>
+    <t>grossi_jenna@bah.com</t>
+  </si>
+  <si>
+    <t>Trouw_Isabella@bah.com</t>
+  </si>
+  <si>
+    <t>zapata_tracela@bah.com</t>
+  </si>
+  <si>
+    <t>603505@bah.com</t>
+  </si>
+  <si>
+    <t>chin_kerry@bah.com</t>
+  </si>
+  <si>
+    <t>Green_Sydney@bah.com</t>
+  </si>
+  <si>
+    <t>Maloney_Andrew@bah.com</t>
+  </si>
+  <si>
+    <t>kim_kathy@bah.com</t>
+  </si>
+  <si>
+    <t>lai_daniel2@bah.com</t>
+  </si>
+  <si>
+    <t>ivey_yvonne@bah.com</t>
+  </si>
+  <si>
+    <t>lee_beth@bah.com</t>
+  </si>
+  <si>
+    <t>hardy_matthew_j@bah.com</t>
+  </si>
+  <si>
+    <t>wong_kerry@bah.com</t>
+  </si>
+  <si>
+    <t>greene_kimberly@bah.com</t>
+  </si>
+  <si>
+    <t>crosetto_andres@bah.com</t>
+  </si>
+  <si>
+    <t>mcmullen_mark@bah.com</t>
+  </si>
+  <si>
+    <t>payne_ellen@bah.com</t>
+  </si>
+  <si>
+    <t>kontzias_stavros@bah.com</t>
+  </si>
+  <si>
+    <t>brown_james@bah.com</t>
+  </si>
+  <si>
+    <t>rose_isis@bah.com</t>
+  </si>
+  <si>
+    <t>wang_jared@bah.com</t>
+  </si>
+  <si>
+    <t>babka_alexandra2@bah.com</t>
+  </si>
+  <si>
+    <t>atasoy_ashleigh@bah.com</t>
+  </si>
+  <si>
+    <t>schnapp_valerie@bah.com</t>
+  </si>
+  <si>
+    <t>bloom_rebecca@bah.com</t>
+  </si>
+  <si>
+    <t>guo_ling@bah.com</t>
+  </si>
+  <si>
+    <t>Shaker_Haseeb@bah.com</t>
+  </si>
+  <si>
+    <t>sosale_akshaya@bah.com</t>
+  </si>
+  <si>
+    <t>reichardt_shelby@bah.com</t>
+  </si>
+  <si>
+    <t>skorup_brigid@bah.com</t>
+  </si>
+  <si>
+    <t>campero-coss_diana@bah.com</t>
+  </si>
+  <si>
+    <t>Gordon_Sarah2@bah.com</t>
+  </si>
+  <si>
+    <t>orourke_jessica@bah.com</t>
+  </si>
+  <si>
+    <t>mclendon_sean@bah.com</t>
+  </si>
+  <si>
+    <t>sipprelle_troy@bah.com</t>
+  </si>
+  <si>
+    <t>Brown_Kelsey@bah.com</t>
+  </si>
+  <si>
+    <t>Ijiti_rebecca@bah.com</t>
+  </si>
+  <si>
+    <t>giles_jonathon@bah.com</t>
+  </si>
+  <si>
+    <t>burciaga_emily@bah.com</t>
+  </si>
+  <si>
+    <t>Gill_Charles@bah.com</t>
+  </si>
+  <si>
+    <t>Verma_Justin@BAH.com</t>
+  </si>
+  <si>
+    <t>banks_raechel@bah.com</t>
+  </si>
+  <si>
+    <t>Knapczyk_Jaclyn@bah.com</t>
+  </si>
+  <si>
+    <t>smart_janelle@bah.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1571,6 +2936,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1608,20 +2981,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1668,7 +3052,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1700,9 +3084,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1734,6 +3136,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1909,14 +3329,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D244"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E242"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1926,3398 +3354,4111 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>486</v>
+      </c>
+      <c r="E2" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>487</v>
+      </c>
+      <c r="E3" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>488</v>
+      </c>
+      <c r="E4" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D5" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>489</v>
+      </c>
+      <c r="E5" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>490</v>
+      </c>
+      <c r="E6" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D7" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>491</v>
+      </c>
+      <c r="E7" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="D8" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>492</v>
+      </c>
+      <c r="E8" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="D9" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>493</v>
+      </c>
+      <c r="E9" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="D10" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>494</v>
+      </c>
+      <c r="E10" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="D11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>495</v>
+      </c>
+      <c r="E11" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="D12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>496</v>
+      </c>
+      <c r="E12" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="D13" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>497</v>
+      </c>
+      <c r="E13" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="D14" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>498</v>
+      </c>
+      <c r="E14" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="D15" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>499</v>
+      </c>
+      <c r="E15" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="D16" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>500</v>
+      </c>
+      <c r="E16" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="D17" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>501</v>
+      </c>
+      <c r="E17" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="D18" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>502</v>
+      </c>
+      <c r="E18" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="D19" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>503</v>
+      </c>
+      <c r="E19" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="D20" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>504</v>
+      </c>
+      <c r="E20" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="D21" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>505</v>
+      </c>
+      <c r="E21" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="D22" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>506</v>
+      </c>
+      <c r="E22" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="D23" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>507</v>
+      </c>
+      <c r="E23" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="D24" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>508</v>
+      </c>
+      <c r="E24" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="D25" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>509</v>
+      </c>
+      <c r="E25" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="D26" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>510</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="D27" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>511</v>
+      </c>
+      <c r="E27" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="D28" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>512</v>
+      </c>
+      <c r="E28" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="D29" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>513</v>
+      </c>
+      <c r="E29" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="D30" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>514</v>
+      </c>
+      <c r="E30" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="D31" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>515</v>
+      </c>
+      <c r="E31" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="D32" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>516</v>
+      </c>
+      <c r="E32" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="D33" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>517</v>
+      </c>
+      <c r="E33" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="D34" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>518</v>
+      </c>
+      <c r="E34" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="D35" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>519</v>
+      </c>
+      <c r="E35" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D36" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>520</v>
+      </c>
+      <c r="E36" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="D37" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>521</v>
+      </c>
+      <c r="E37" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="D38" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>522</v>
+      </c>
+      <c r="E38" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="D39" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>523</v>
+      </c>
+      <c r="E39" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="D40" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>524</v>
+      </c>
+      <c r="E40" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="D41" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>525</v>
+      </c>
+      <c r="E41" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>244</v>
+        <v>285</v>
       </c>
       <c r="D42" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>526</v>
+      </c>
+      <c r="E42" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>244</v>
+        <v>286</v>
       </c>
       <c r="D43" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>527</v>
+      </c>
+      <c r="E43" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D44" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>528</v>
+      </c>
+      <c r="E44" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D45" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>529</v>
+      </c>
+      <c r="E45" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>244</v>
+        <v>289</v>
       </c>
       <c r="D46" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>530</v>
+      </c>
+      <c r="E46" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>244</v>
+        <v>290</v>
       </c>
       <c r="D47" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>531</v>
+      </c>
+      <c r="E47" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>244</v>
+        <v>291</v>
       </c>
       <c r="D48" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>532</v>
+      </c>
+      <c r="E48" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>244</v>
+        <v>292</v>
       </c>
       <c r="D49" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>533</v>
+      </c>
+      <c r="E49" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>244</v>
+        <v>293</v>
       </c>
       <c r="D50" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>534</v>
+      </c>
+      <c r="E50" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>244</v>
+        <v>294</v>
       </c>
       <c r="D51" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>535</v>
+      </c>
+      <c r="E51" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>244</v>
+        <v>295</v>
       </c>
       <c r="D52" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>536</v>
+      </c>
+      <c r="E52" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>244</v>
+        <v>296</v>
       </c>
       <c r="D53" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>537</v>
+      </c>
+      <c r="E53" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>244</v>
+        <v>297</v>
       </c>
       <c r="D54" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>538</v>
+      </c>
+      <c r="E54" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>244</v>
+        <v>298</v>
       </c>
       <c r="D55" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>539</v>
+      </c>
+      <c r="E55" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>244</v>
+        <v>299</v>
       </c>
       <c r="D56" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>540</v>
+      </c>
+      <c r="E56" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>244</v>
+        <v>300</v>
       </c>
       <c r="D57" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>541</v>
+      </c>
+      <c r="E57" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>244</v>
+        <v>301</v>
       </c>
       <c r="D58" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>542</v>
+      </c>
+      <c r="E58" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>244</v>
+        <v>302</v>
       </c>
       <c r="D59" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>543</v>
+      </c>
+      <c r="E59" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>244</v>
+        <v>303</v>
       </c>
       <c r="D60" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>544</v>
+      </c>
+      <c r="E60" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>244</v>
+        <v>304</v>
       </c>
       <c r="D61" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>545</v>
+      </c>
+      <c r="E61" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>244</v>
+        <v>305</v>
       </c>
       <c r="D62" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>546</v>
+      </c>
+      <c r="E62" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>244</v>
+        <v>306</v>
       </c>
       <c r="D63" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>547</v>
+      </c>
+      <c r="E63" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>244</v>
+        <v>307</v>
       </c>
       <c r="D64" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>548</v>
+      </c>
+      <c r="E64" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>244</v>
+        <v>308</v>
       </c>
       <c r="D65" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>549</v>
+      </c>
+      <c r="E65" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>244</v>
+        <v>309</v>
       </c>
       <c r="D66" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>550</v>
+      </c>
+      <c r="E66" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>244</v>
+        <v>310</v>
       </c>
       <c r="D67" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>551</v>
+      </c>
+      <c r="E67" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>244</v>
+        <v>311</v>
       </c>
       <c r="D68" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>552</v>
+      </c>
+      <c r="E68" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>249</v>
+        <v>312</v>
       </c>
       <c r="D69" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>553</v>
+      </c>
+      <c r="E69" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>244</v>
+        <v>313</v>
       </c>
       <c r="D70" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>554</v>
+      </c>
+      <c r="E70" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>244</v>
+        <v>314</v>
       </c>
       <c r="D71" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>555</v>
+      </c>
+      <c r="E71" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>244</v>
+        <v>315</v>
       </c>
       <c r="D72" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>556</v>
+      </c>
+      <c r="E72" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>244</v>
+        <v>316</v>
       </c>
       <c r="D73" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>557</v>
+      </c>
+      <c r="E73" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>244</v>
+        <v>317</v>
       </c>
       <c r="D74" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>558</v>
+      </c>
+      <c r="E74" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>244</v>
+        <v>318</v>
       </c>
       <c r="D75" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>559</v>
+      </c>
+      <c r="E75" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="D76" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>560</v>
+      </c>
+      <c r="E76" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>244</v>
+        <v>320</v>
       </c>
       <c r="D77" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>561</v>
+      </c>
+      <c r="E77" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>244</v>
+        <v>321</v>
       </c>
       <c r="D78" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>562</v>
+      </c>
+      <c r="E78" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>244</v>
+        <v>322</v>
       </c>
       <c r="D79" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>563</v>
+      </c>
+      <c r="E79" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>244</v>
+        <v>323</v>
       </c>
       <c r="D80" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>564</v>
+      </c>
+      <c r="E80" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>244</v>
+        <v>324</v>
       </c>
       <c r="D81" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>565</v>
+      </c>
+      <c r="E81" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>250</v>
+        <v>325</v>
       </c>
       <c r="D82" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>566</v>
+      </c>
+      <c r="E82" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>244</v>
+        <v>326</v>
       </c>
       <c r="D83" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>567</v>
+      </c>
+      <c r="E83" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>244</v>
+        <v>327</v>
       </c>
       <c r="D84" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E84" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>244</v>
+        <v>328</v>
       </c>
       <c r="D85" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>569</v>
+      </c>
+      <c r="E85" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>244</v>
+        <v>329</v>
       </c>
       <c r="D86" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>570</v>
+      </c>
+      <c r="E86" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>245</v>
+        <v>330</v>
       </c>
       <c r="D87" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>571</v>
+      </c>
+      <c r="E87" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>244</v>
+        <v>331</v>
       </c>
       <c r="D88" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>572</v>
+      </c>
+      <c r="E88" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>244</v>
+        <v>332</v>
       </c>
       <c r="D89" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>573</v>
+      </c>
+      <c r="E89" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>244</v>
+        <v>333</v>
       </c>
       <c r="D90" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>574</v>
+      </c>
+      <c r="E90" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>244</v>
+        <v>334</v>
       </c>
       <c r="D91" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>575</v>
+      </c>
+      <c r="E91" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>244</v>
+        <v>335</v>
       </c>
       <c r="D92" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>576</v>
+      </c>
+      <c r="E92" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>244</v>
+        <v>336</v>
       </c>
       <c r="D93" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>577</v>
+      </c>
+      <c r="E93" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>244</v>
+        <v>337</v>
       </c>
       <c r="D94" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>578</v>
+      </c>
+      <c r="E94" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>244</v>
+        <v>338</v>
       </c>
       <c r="D95" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>579</v>
+      </c>
+      <c r="E95" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>244</v>
+        <v>339</v>
       </c>
       <c r="D96" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>580</v>
+      </c>
+      <c r="E96" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>244</v>
+        <v>340</v>
       </c>
       <c r="D97" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>581</v>
+      </c>
+      <c r="E97" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>244</v>
+        <v>341</v>
       </c>
       <c r="D98" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>582</v>
+      </c>
+      <c r="E98" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>244</v>
+        <v>342</v>
       </c>
       <c r="D99" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>583</v>
+      </c>
+      <c r="E99" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>251</v>
+        <v>343</v>
       </c>
       <c r="D100" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>584</v>
+      </c>
+      <c r="E100" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>244</v>
+        <v>344</v>
       </c>
       <c r="D101" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>585</v>
+      </c>
+      <c r="E101" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>246</v>
+        <v>345</v>
       </c>
       <c r="D102" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>586</v>
+      </c>
+      <c r="E102" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>246</v>
+        <v>346</v>
       </c>
       <c r="D103" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+        <v>587</v>
+      </c>
+      <c r="E103" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>244</v>
+        <v>347</v>
       </c>
       <c r="D104" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+        <v>588</v>
+      </c>
+      <c r="E104" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>244</v>
+        <v>348</v>
       </c>
       <c r="D105" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+        <v>589</v>
+      </c>
+      <c r="E105" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>244</v>
+        <v>349</v>
       </c>
       <c r="D106" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+        <v>590</v>
+      </c>
+      <c r="E106" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>244</v>
+        <v>350</v>
       </c>
       <c r="D107" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+        <v>591</v>
+      </c>
+      <c r="E107" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>244</v>
+        <v>351</v>
       </c>
       <c r="D108" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+        <v>592</v>
+      </c>
+      <c r="E108" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>244</v>
+        <v>352</v>
       </c>
       <c r="D109" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+        <v>593</v>
+      </c>
+      <c r="E109" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>244</v>
+        <v>353</v>
       </c>
       <c r="D110" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+        <v>594</v>
+      </c>
+      <c r="E110" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>244</v>
+        <v>354</v>
       </c>
       <c r="D111" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+        <v>595</v>
+      </c>
+      <c r="E111" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>244</v>
+        <v>355</v>
       </c>
       <c r="D112" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+        <v>596</v>
+      </c>
+      <c r="E112" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>244</v>
+        <v>356</v>
       </c>
       <c r="D113" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+        <v>597</v>
+      </c>
+      <c r="E113" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>244</v>
+        <v>357</v>
       </c>
       <c r="D114" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+        <v>598</v>
+      </c>
+      <c r="E114" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>244</v>
+        <v>358</v>
       </c>
       <c r="D115" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+        <v>599</v>
+      </c>
+      <c r="E115" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>244</v>
+        <v>359</v>
       </c>
       <c r="D116" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+        <v>600</v>
+      </c>
+      <c r="E116" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>244</v>
+        <v>360</v>
       </c>
       <c r="D117" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+        <v>601</v>
+      </c>
+      <c r="E117" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>244</v>
+        <v>361</v>
       </c>
       <c r="D118" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+        <v>602</v>
+      </c>
+      <c r="E118" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>244</v>
+        <v>362</v>
       </c>
       <c r="D119" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+        <v>603</v>
+      </c>
+      <c r="E119" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
       <c r="D120" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+        <v>604</v>
+      </c>
+      <c r="E120" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>244</v>
+        <v>364</v>
       </c>
       <c r="D121" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+        <v>605</v>
+      </c>
+      <c r="E121" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>244</v>
+        <v>365</v>
       </c>
       <c r="D122" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+        <v>606</v>
+      </c>
+      <c r="E122" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C123" t="s">
-        <v>244</v>
+        <v>366</v>
       </c>
       <c r="D123" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+        <v>607</v>
+      </c>
+      <c r="E123" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C124" t="s">
-        <v>244</v>
+        <v>367</v>
       </c>
       <c r="D124" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+        <v>608</v>
+      </c>
+      <c r="E124" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>244</v>
+        <v>368</v>
       </c>
       <c r="D125" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
+        <v>609</v>
+      </c>
+      <c r="E125" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>244</v>
+        <v>369</v>
       </c>
       <c r="D126" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
+        <v>610</v>
+      </c>
+      <c r="E126" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>244</v>
+        <v>370</v>
       </c>
       <c r="D127" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+        <v>611</v>
+      </c>
+      <c r="E127" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>244</v>
+        <v>371</v>
       </c>
       <c r="D128" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
+        <v>612</v>
+      </c>
+      <c r="E128" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>244</v>
+        <v>372</v>
       </c>
       <c r="D129" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
+        <v>613</v>
+      </c>
+      <c r="E129" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>244</v>
+        <v>373</v>
       </c>
       <c r="D130" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
+        <v>614</v>
+      </c>
+      <c r="E130" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C131" t="s">
-        <v>244</v>
+        <v>374</v>
       </c>
       <c r="D131" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
+        <v>615</v>
+      </c>
+      <c r="E131" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C132" t="s">
-        <v>244</v>
+        <v>375</v>
       </c>
       <c r="D132" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
+        <v>616</v>
+      </c>
+      <c r="E132" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>244</v>
+        <v>376</v>
       </c>
       <c r="D133" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
+        <v>617</v>
+      </c>
+      <c r="E133" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>244</v>
+        <v>377</v>
       </c>
       <c r="D134" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
+        <v>618</v>
+      </c>
+      <c r="E134" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C135" t="s">
-        <v>244</v>
+        <v>378</v>
       </c>
       <c r="D135" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
+        <v>619</v>
+      </c>
+      <c r="E135" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C136" t="s">
-        <v>244</v>
+        <v>379</v>
       </c>
       <c r="D136" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
+        <v>620</v>
+      </c>
+      <c r="E136" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>244</v>
+        <v>380</v>
       </c>
       <c r="D137" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
+        <v>621</v>
+      </c>
+      <c r="E137" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C138" t="s">
-        <v>244</v>
+        <v>381</v>
       </c>
       <c r="D138" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
+        <v>622</v>
+      </c>
+      <c r="E138" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C139" t="s">
-        <v>244</v>
+        <v>382</v>
       </c>
       <c r="D139" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
+        <v>623</v>
+      </c>
+      <c r="E139" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C140" t="s">
-        <v>244</v>
+        <v>383</v>
       </c>
       <c r="D140" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
+        <v>624</v>
+      </c>
+      <c r="E140" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>244</v>
+        <v>384</v>
       </c>
       <c r="D141" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
+        <v>625</v>
+      </c>
+      <c r="E141" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C142" t="s">
-        <v>244</v>
+        <v>385</v>
       </c>
       <c r="D142" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
+        <v>626</v>
+      </c>
+      <c r="E142" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C143" t="s">
-        <v>244</v>
+        <v>386</v>
       </c>
       <c r="D143" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
+        <v>627</v>
+      </c>
+      <c r="E143" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>244</v>
+        <v>387</v>
       </c>
       <c r="D144" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
+        <v>628</v>
+      </c>
+      <c r="E144" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C145" t="s">
-        <v>244</v>
+        <v>388</v>
       </c>
       <c r="D145" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
+        <v>629</v>
+      </c>
+      <c r="E145" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C146" t="s">
-        <v>244</v>
+        <v>389</v>
       </c>
       <c r="D146" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
+        <v>630</v>
+      </c>
+      <c r="E146" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C147" t="s">
-        <v>244</v>
+        <v>390</v>
       </c>
       <c r="D147" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
+        <v>631</v>
+      </c>
+      <c r="E147" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C148" t="s">
-        <v>244</v>
+        <v>391</v>
       </c>
       <c r="D148" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
+        <v>632</v>
+      </c>
+      <c r="E148" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C149" t="s">
-        <v>244</v>
+        <v>392</v>
       </c>
       <c r="D149" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
+        <v>633</v>
+      </c>
+      <c r="E149" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="C150" t="s">
-        <v>244</v>
+        <v>393</v>
       </c>
       <c r="D150" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
+        <v>634</v>
+      </c>
+      <c r="E150" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C151" t="s">
-        <v>244</v>
+        <v>394</v>
       </c>
       <c r="D151" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
+        <v>635</v>
+      </c>
+      <c r="E151" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C152" t="s">
-        <v>244</v>
+        <v>395</v>
       </c>
       <c r="D152" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
+        <v>636</v>
+      </c>
+      <c r="E152" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C153" t="s">
-        <v>244</v>
+        <v>396</v>
       </c>
       <c r="D153" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
+        <v>637</v>
+      </c>
+      <c r="E153" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C154" t="s">
-        <v>244</v>
+        <v>397</v>
       </c>
       <c r="D154" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
+        <v>638</v>
+      </c>
+      <c r="E154" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C155" t="s">
-        <v>244</v>
+        <v>398</v>
       </c>
       <c r="D155" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
+        <v>639</v>
+      </c>
+      <c r="E155" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C156" t="s">
-        <v>244</v>
+        <v>399</v>
       </c>
       <c r="D156" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
+        <v>640</v>
+      </c>
+      <c r="E156" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C157" t="s">
-        <v>244</v>
+        <v>400</v>
       </c>
       <c r="D157" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
+        <v>641</v>
+      </c>
+      <c r="E157" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C158" t="s">
-        <v>244</v>
+        <v>401</v>
       </c>
       <c r="D158" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
+        <v>642</v>
+      </c>
+      <c r="E158" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C159" t="s">
-        <v>244</v>
+        <v>402</v>
       </c>
       <c r="D159" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
+        <v>643</v>
+      </c>
+      <c r="E159" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C160" t="s">
-        <v>244</v>
+        <v>403</v>
       </c>
       <c r="D160" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
+        <v>644</v>
+      </c>
+      <c r="E160" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C161" t="s">
-        <v>244</v>
+        <v>404</v>
       </c>
       <c r="D161" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
+        <v>645</v>
+      </c>
+      <c r="E161" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C162" t="s">
-        <v>244</v>
+        <v>405</v>
       </c>
       <c r="D162" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
+        <v>646</v>
+      </c>
+      <c r="E162" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C163" t="s">
-        <v>244</v>
+        <v>406</v>
       </c>
       <c r="D163" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
+        <v>647</v>
+      </c>
+      <c r="E163" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C164" t="s">
-        <v>244</v>
+        <v>407</v>
       </c>
       <c r="D164" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
+        <v>648</v>
+      </c>
+      <c r="E164" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C165" t="s">
-        <v>244</v>
+        <v>408</v>
       </c>
       <c r="D165" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
+        <v>649</v>
+      </c>
+      <c r="E165" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C166" t="s">
-        <v>244</v>
+        <v>409</v>
       </c>
       <c r="D166" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
+        <v>650</v>
+      </c>
+      <c r="E166" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C167" t="s">
-        <v>244</v>
+        <v>410</v>
       </c>
       <c r="D167" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
+        <v>651</v>
+      </c>
+      <c r="E167" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C168" t="s">
-        <v>246</v>
+        <v>411</v>
       </c>
       <c r="D168" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
+        <v>652</v>
+      </c>
+      <c r="E168" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C169" t="s">
-        <v>248</v>
+        <v>412</v>
       </c>
       <c r="D169" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
+        <v>653</v>
+      </c>
+      <c r="E169" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C170" t="s">
-        <v>248</v>
+        <v>413</v>
       </c>
       <c r="D170" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
+        <v>654</v>
+      </c>
+      <c r="E170" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C171" t="s">
-        <v>248</v>
+        <v>414</v>
       </c>
       <c r="D171" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
+        <v>655</v>
+      </c>
+      <c r="E171" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C172" t="s">
-        <v>248</v>
+        <v>415</v>
       </c>
       <c r="D172" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
+        <v>656</v>
+      </c>
+      <c r="E172" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C173" t="s">
-        <v>248</v>
+        <v>416</v>
       </c>
       <c r="D173" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
+        <v>657</v>
+      </c>
+      <c r="E173" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C174" t="s">
-        <v>248</v>
+        <v>417</v>
       </c>
       <c r="D174" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
+        <v>658</v>
+      </c>
+      <c r="E174" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C175" t="s">
-        <v>248</v>
+        <v>418</v>
       </c>
       <c r="D175" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
+        <v>659</v>
+      </c>
+      <c r="E175" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C176" t="s">
-        <v>252</v>
+        <v>419</v>
       </c>
       <c r="D176" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
+        <v>660</v>
+      </c>
+      <c r="E176" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C177" t="s">
-        <v>246</v>
+        <v>420</v>
       </c>
       <c r="D177" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
+        <v>661</v>
+      </c>
+      <c r="E177" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C178" t="s">
-        <v>253</v>
+        <v>421</v>
       </c>
       <c r="D178" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
+        <v>662</v>
+      </c>
+      <c r="E178" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C179" t="s">
-        <v>245</v>
+        <v>422</v>
       </c>
       <c r="D179" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
+        <v>663</v>
+      </c>
+      <c r="E179" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C180" t="s">
-        <v>254</v>
+        <v>423</v>
       </c>
       <c r="D180" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
+        <v>664</v>
+      </c>
+      <c r="E180" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C181" t="s">
-        <v>250</v>
+        <v>424</v>
       </c>
       <c r="D181" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
+        <v>665</v>
+      </c>
+      <c r="E181" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C182" t="s">
-        <v>250</v>
+        <v>425</v>
       </c>
       <c r="D182" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
+        <v>666</v>
+      </c>
+      <c r="E182" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C183" t="s">
-        <v>250</v>
+        <v>426</v>
       </c>
       <c r="D183" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
+        <v>667</v>
+      </c>
+      <c r="E183" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C184" t="s">
-        <v>249</v>
+        <v>427</v>
       </c>
       <c r="D184" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
+        <v>668</v>
+      </c>
+      <c r="E184" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C185" t="s">
-        <v>249</v>
+        <v>428</v>
       </c>
       <c r="D185" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
+        <v>669</v>
+      </c>
+      <c r="E185" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C186" t="s">
-        <v>245</v>
+        <v>429</v>
       </c>
       <c r="D186" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
+        <v>670</v>
+      </c>
+      <c r="E186" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>186</v>
+        <v>189</v>
+      </c>
+      <c r="C187" t="s">
+        <v>430</v>
       </c>
       <c r="D187" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
+        <v>671</v>
+      </c>
+      <c r="E187" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>187</v>
+        <v>190</v>
+      </c>
+      <c r="C188" t="s">
+        <v>431</v>
       </c>
       <c r="D188" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
+        <v>672</v>
+      </c>
+      <c r="E188" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>188</v>
+        <v>191</v>
+      </c>
+      <c r="C189" t="s">
+        <v>432</v>
       </c>
       <c r="D189" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
+        <v>673</v>
+      </c>
+      <c r="E189" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>189</v>
+        <v>192</v>
+      </c>
+      <c r="C190" t="s">
+        <v>433</v>
       </c>
       <c r="D190" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
+        <v>674</v>
+      </c>
+      <c r="E190" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C191" t="s">
-        <v>255</v>
+        <v>434</v>
       </c>
       <c r="D191" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4">
+        <v>675</v>
+      </c>
+      <c r="E191" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C192" t="s">
-        <v>255</v>
+        <v>435</v>
       </c>
       <c r="D192" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
+        <v>676</v>
+      </c>
+      <c r="E192" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C193" t="s">
-        <v>256</v>
+        <v>436</v>
       </c>
       <c r="D193" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
+        <v>677</v>
+      </c>
+      <c r="E193" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C194" t="s">
-        <v>256</v>
+        <v>437</v>
       </c>
       <c r="D194" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
+        <v>678</v>
+      </c>
+      <c r="E194" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C195" t="s">
-        <v>254</v>
+        <v>438</v>
       </c>
       <c r="D195" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
+        <v>679</v>
+      </c>
+      <c r="E195" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C196" t="s">
-        <v>257</v>
+        <v>439</v>
       </c>
       <c r="D196" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
+        <v>680</v>
+      </c>
+      <c r="E196" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C197" t="s">
-        <v>258</v>
+        <v>440</v>
       </c>
       <c r="D197" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
+        <v>681</v>
+      </c>
+      <c r="E197" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C198" t="s">
-        <v>259</v>
+        <v>441</v>
       </c>
       <c r="D198" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
+        <v>682</v>
+      </c>
+      <c r="E198" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C199" t="s">
-        <v>260</v>
+        <v>442</v>
       </c>
       <c r="D199" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
+        <v>683</v>
+      </c>
+      <c r="E199" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C200" t="s">
-        <v>261</v>
+        <v>443</v>
       </c>
       <c r="D200" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
+        <v>684</v>
+      </c>
+      <c r="E200" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C201" t="s">
-        <v>261</v>
+        <v>444</v>
       </c>
       <c r="D201" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
+        <v>685</v>
+      </c>
+      <c r="E201" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C202" t="s">
-        <v>262</v>
+        <v>445</v>
       </c>
       <c r="D202" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
+        <v>686</v>
+      </c>
+      <c r="E202" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C203" t="s">
-        <v>255</v>
+        <v>446</v>
       </c>
       <c r="D203" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4">
+        <v>687</v>
+      </c>
+      <c r="E203" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C204" t="s">
-        <v>255</v>
+        <v>447</v>
       </c>
       <c r="D204" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
+        <v>688</v>
+      </c>
+      <c r="E204" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C205" t="s">
-        <v>262</v>
+        <v>448</v>
       </c>
       <c r="D205" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
+        <v>689</v>
+      </c>
+      <c r="E205" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C206" t="s">
-        <v>263</v>
+        <v>449</v>
       </c>
       <c r="D206" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
+        <v>690</v>
+      </c>
+      <c r="E206" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C207" t="s">
-        <v>255</v>
+        <v>450</v>
       </c>
       <c r="D207" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
+        <v>691</v>
+      </c>
+      <c r="E207" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C208" t="s">
-        <v>261</v>
+        <v>451</v>
       </c>
       <c r="D208" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4">
+        <v>692</v>
+      </c>
+      <c r="E208" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C209" t="s">
-        <v>261</v>
+        <v>452</v>
       </c>
       <c r="D209" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4">
+        <v>693</v>
+      </c>
+      <c r="E209" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C210" t="s">
-        <v>264</v>
+        <v>453</v>
       </c>
       <c r="D210" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4">
+        <v>694</v>
+      </c>
+      <c r="E210" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C211" t="s">
-        <v>265</v>
+        <v>454</v>
       </c>
       <c r="D211" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4">
+        <v>695</v>
+      </c>
+      <c r="E211" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C212" t="s">
-        <v>253</v>
+        <v>455</v>
       </c>
       <c r="D212" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4">
+        <v>696</v>
+      </c>
+      <c r="E212" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C213" t="s">
-        <v>261</v>
+        <v>456</v>
       </c>
       <c r="D213" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4">
+        <v>697</v>
+      </c>
+      <c r="E213" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C214" t="s">
-        <v>266</v>
+        <v>457</v>
       </c>
       <c r="D214" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4">
+        <v>698</v>
+      </c>
+      <c r="E214" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C215" t="s">
-        <v>256</v>
+        <v>458</v>
       </c>
       <c r="D215" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4">
+        <v>699</v>
+      </c>
+      <c r="E215" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C216" t="s">
-        <v>251</v>
+        <v>459</v>
       </c>
       <c r="D216" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4">
+        <v>700</v>
+      </c>
+      <c r="E216" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C217" t="s">
-        <v>267</v>
+        <v>460</v>
       </c>
       <c r="D217" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4">
+        <v>701</v>
+      </c>
+      <c r="E217" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C218" t="s">
-        <v>268</v>
+        <v>461</v>
       </c>
       <c r="D218" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4">
+        <v>702</v>
+      </c>
+      <c r="E218" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C219" t="s">
-        <v>257</v>
+        <v>462</v>
       </c>
       <c r="D219" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4">
+        <v>703</v>
+      </c>
+      <c r="E219" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C220" t="s">
-        <v>267</v>
+        <v>463</v>
       </c>
       <c r="D220" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4">
+        <v>704</v>
+      </c>
+      <c r="E220" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C221" t="s">
-        <v>255</v>
+        <v>464</v>
       </c>
       <c r="D221" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4">
+        <v>705</v>
+      </c>
+      <c r="E221" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C222" t="s">
-        <v>259</v>
+        <v>465</v>
       </c>
       <c r="D222" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4">
+        <v>706</v>
+      </c>
+      <c r="E222" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C223" t="s">
-        <v>254</v>
+        <v>466</v>
       </c>
       <c r="D223" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4">
+        <v>707</v>
+      </c>
+      <c r="E223" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C224" t="s">
-        <v>256</v>
+        <v>467</v>
       </c>
       <c r="D224" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4">
+        <v>708</v>
+      </c>
+      <c r="E224" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C225" t="s">
-        <v>257</v>
+        <v>468</v>
       </c>
       <c r="D225" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4">
+        <v>709</v>
+      </c>
+      <c r="E225" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C226" t="s">
-        <v>256</v>
+        <v>469</v>
       </c>
       <c r="D226" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4">
+        <v>710</v>
+      </c>
+      <c r="E226" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C227" t="s">
-        <v>262</v>
+        <v>470</v>
       </c>
       <c r="D227" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4">
+        <v>711</v>
+      </c>
+      <c r="E227" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C228" t="s">
-        <v>265</v>
+        <v>471</v>
       </c>
       <c r="D228" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4">
+        <v>712</v>
+      </c>
+      <c r="E228" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C229" t="s">
-        <v>267</v>
+        <v>472</v>
       </c>
       <c r="D229" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4">
+        <v>713</v>
+      </c>
+      <c r="E229" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C230" t="s">
-        <v>269</v>
+        <v>473</v>
       </c>
       <c r="D230" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4">
+        <v>714</v>
+      </c>
+      <c r="E230" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C231" t="s">
-        <v>247</v>
+        <v>474</v>
       </c>
       <c r="D231" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4">
+        <v>715</v>
+      </c>
+      <c r="E231" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C232" t="s">
-        <v>257</v>
+        <v>475</v>
       </c>
       <c r="D232" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4">
+        <v>716</v>
+      </c>
+      <c r="E232" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C233" t="s">
-        <v>249</v>
+        <v>476</v>
       </c>
       <c r="D233" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4">
+        <v>717</v>
+      </c>
+      <c r="E233" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C234" t="s">
-        <v>268</v>
+        <v>477</v>
       </c>
       <c r="D234" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4">
+        <v>718</v>
+      </c>
+      <c r="E234" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C235" t="s">
-        <v>268</v>
+        <v>478</v>
       </c>
       <c r="D235" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4">
+        <v>719</v>
+      </c>
+      <c r="E235" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C236" t="s">
-        <v>249</v>
+        <v>479</v>
       </c>
       <c r="D236" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4">
+        <v>720</v>
+      </c>
+      <c r="E236" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C237" t="s">
-        <v>266</v>
+        <v>480</v>
       </c>
       <c r="D237" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4">
+        <v>721</v>
+      </c>
+      <c r="E237" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C238" t="s">
-        <v>254</v>
+        <v>481</v>
       </c>
       <c r="D238" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4">
+        <v>722</v>
+      </c>
+      <c r="E238" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C239" t="s">
-        <v>247</v>
+        <v>482</v>
       </c>
       <c r="D239" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4">
+        <v>723</v>
+      </c>
+      <c r="E239" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C240" t="s">
-        <v>261</v>
+        <v>483</v>
       </c>
       <c r="D240" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4">
+        <v>724</v>
+      </c>
+      <c r="E240" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C241" t="s">
-        <v>266</v>
+        <v>484</v>
       </c>
       <c r="D241" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4">
+        <v>725</v>
+      </c>
+      <c r="E241" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C242" t="s">
-        <v>249</v>
+        <v>485</v>
       </c>
       <c r="D242" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
-      <c r="A243" s="1">
-        <v>241</v>
-      </c>
-      <c r="B243" t="s">
-        <v>242</v>
-      </c>
-      <c r="C243" t="s">
-        <v>251</v>
-      </c>
-      <c r="D243" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4">
-      <c r="A244" s="1">
-        <v>242</v>
-      </c>
-      <c r="B244" t="s">
-        <v>243</v>
-      </c>
-      <c r="C244" t="s">
-        <v>261</v>
-      </c>
-      <c r="D244" t="s">
-        <v>512</v>
+        <v>726</v>
+      </c>
+      <c r="E242" t="s">
+        <v>965</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E26" r:id="rId1" xr:uid="{EA6781D7-BEF9-B544-9B9B-B31B93AB6CD5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>